--- a/assets/Mammalian_Mutations_of_Intrest_2324.xlsx
+++ b/assets/Mammalian_Mutations_of_Intrest_2324.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Virologi\NGS\1-NGS-Analyser\1-Rutine\2-Resultater\Influensa\Sesongfiler\2324\Mutation_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2FEC1B-B153-4C1A-9EDC-AA65F55B36D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF93B007-64BA-40F3-90C0-59E1D04D27DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="240" windowWidth="31695" windowHeight="19545" xr2:uid="{0D809499-6AB2-485B-B1B9-717479A0DA7D}"/>
+    <workbookView xWindow="5070" yWindow="1605" windowWidth="34620" windowHeight="19995" xr2:uid="{0D809499-6AB2-485B-B1B9-717479A0DA7D}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -269,144 +269,6 @@
     <t>H7N7</t>
   </si>
   <si>
-    <t>323 to 330 (R-X-R; K-R)</t>
-  </si>
-  <si>
-    <t>E75K; S123P</t>
-  </si>
-  <si>
-    <t>E75K; S123P; R497K</t>
-  </si>
-  <si>
-    <t>E75K; S123P; N193K; R497K</t>
-  </si>
-  <si>
-    <t>E75K; N193K</t>
-  </si>
-  <si>
-    <t>E75K; N193K; R497K</t>
-  </si>
-  <si>
-    <t>E75K; R497K</t>
-  </si>
-  <si>
-    <t>S107R; T108I</t>
-  </si>
-  <si>
-    <t>S123P; N193K</t>
-  </si>
-  <si>
-    <t>S123P; N193K; R497K</t>
-  </si>
-  <si>
-    <t>S123P; R497K</t>
-  </si>
-  <si>
-    <t>L129V; A134V</t>
-  </si>
-  <si>
-    <t>L129del; I151T</t>
-  </si>
-  <si>
-    <t>S133A; T188I</t>
-  </si>
-  <si>
-    <t>G139R; N182K</t>
-  </si>
-  <si>
-    <t>N154D; N220K; Q222L; T315I</t>
-  </si>
-  <si>
-    <t>N154S; Q222L</t>
-  </si>
-  <si>
-    <t>N154S; Q222L; N244D</t>
-  </si>
-  <si>
-    <t>S155N; T156A</t>
-  </si>
-  <si>
-    <t>S155N; T156A; S223N</t>
-  </si>
-  <si>
-    <t>T156A; K189T; N220K; Q222L</t>
-  </si>
-  <si>
-    <t>T156A; Q222L</t>
-  </si>
-  <si>
-    <t>T156A; Q222L; G224S</t>
-  </si>
-  <si>
-    <t>T156A; S223N</t>
-  </si>
-  <si>
-    <t>V182N; N224K</t>
-  </si>
-  <si>
-    <t>V182 K/G; K189T; G224S</t>
-  </si>
-  <si>
-    <t>V182N; N220K; G224S</t>
-  </si>
-  <si>
-    <t>N182K; Q192R; Q222L; S223N; G224S</t>
-  </si>
-  <si>
-    <t>N182K; Q222L; S223N; G224S</t>
-  </si>
-  <si>
-    <t>N182K; Q222L; G224S</t>
-  </si>
-  <si>
-    <t>E183G; E186D; K189S; Q222L; G224S</t>
-  </si>
-  <si>
-    <t>E183G; Q222L;G224S</t>
-  </si>
-  <si>
-    <t>D183G; S223N</t>
-  </si>
-  <si>
-    <t>T185A; G188R</t>
-  </si>
-  <si>
-    <t>E186G; Q222E; G224S</t>
-  </si>
-  <si>
-    <t>K189T; G224S</t>
-  </si>
-  <si>
-    <t>K189R; Q222L; G224S</t>
-  </si>
-  <si>
-    <t>Q192R; Q222L; S223N; G224S</t>
-  </si>
-  <si>
-    <t>Q192R; Q222L; G224S</t>
-  </si>
-  <si>
-    <t>Q192R; S223N</t>
-  </si>
-  <si>
-    <t>N193K; R497K</t>
-  </si>
-  <si>
-    <t>K218Q; S223R</t>
-  </si>
-  <si>
-    <t>N220K; G224S</t>
-  </si>
-  <si>
-    <t>Q222L; S223N; G224S</t>
-  </si>
-  <si>
-    <t>Q222L; G224S</t>
-  </si>
-  <si>
-    <t>H103Y; T156A; Q222L; G224S</t>
-  </si>
-  <si>
     <t>N182K</t>
   </si>
   <si>
@@ -434,39 +296,24 @@
     <t>Enhanced virulence in mice</t>
   </si>
   <si>
-    <t>54–72 deletion</t>
-  </si>
-  <si>
     <t>Enhanced virulence in mice but not chickens</t>
   </si>
   <si>
     <t>Enhanced virulence in mice and chickens</t>
   </si>
   <si>
-    <t>54–73 deletion</t>
-  </si>
-  <si>
-    <t>54–75 deletion</t>
-  </si>
-  <si>
     <t>Enhanced virulence in chickens but not ducks</t>
   </si>
   <si>
     <t>H7N1</t>
   </si>
   <si>
-    <t>54–81 deletion</t>
-  </si>
-  <si>
     <t>Enhanced replication in chicken, but not duck, cell line. Enhanced replication in respiratory tract of chickens.</t>
   </si>
   <si>
     <t>H2N2</t>
   </si>
   <si>
-    <t>57–65 deletion</t>
-  </si>
-  <si>
     <t>V116A</t>
   </si>
   <si>
@@ -569,30 +416,6 @@
     <t>H1N1</t>
   </si>
   <si>
-    <t>I117V; I314V</t>
-  </si>
-  <si>
-    <t>E119V; E222V</t>
-  </si>
-  <si>
-    <t>I222L; S246N</t>
-  </si>
-  <si>
-    <t>I222M/V; H274Y</t>
-  </si>
-  <si>
-    <t>K150N; I222L; S246N</t>
-  </si>
-  <si>
-    <t>E119D; H274Y</t>
-  </si>
-  <si>
-    <t>E119G; H274Y</t>
-  </si>
-  <si>
-    <t>E119A; H274Y</t>
-  </si>
-  <si>
     <t>NA1</t>
   </si>
   <si>
@@ -776,36 +599,6 @@
     <t>Enable airborne transmissibility between ferrets and contact transmission between guinea pigs, (with HA: H110Y, T160A, Q226L, G228S; PB1: H99Y)</t>
   </si>
   <si>
-    <t>M28I; A274T; K526R; I553V; L607V</t>
-  </si>
-  <si>
-    <t>L89V; G309D</t>
-  </si>
-  <si>
-    <t>L89V; G309D; T339K; R477G; I495V; K627E; A676T</t>
-  </si>
-  <si>
-    <t>M147L; E627K</t>
-  </si>
-  <si>
-    <t>I147T; K339T; A588T</t>
-  </si>
-  <si>
-    <t>K526R; E627K</t>
-  </si>
-  <si>
-    <t>E627K; D701N</t>
-  </si>
-  <si>
-    <t>E627K; S714R</t>
-  </si>
-  <si>
-    <t>E627K; D701N; S714R</t>
-  </si>
-  <si>
-    <t>D701N; S714R</t>
-  </si>
-  <si>
     <t>N105S</t>
   </si>
   <si>
@@ -860,27 +653,12 @@
     <t>Decrease polymerase activity, replication and virulence in ducks</t>
   </si>
   <si>
-    <t>49–68 deletion</t>
-  </si>
-  <si>
     <t>PB1</t>
   </si>
   <si>
-    <t xml:space="preserve">H99Y </t>
-  </si>
-  <si>
     <t>Airborne transmissible in ferrets, (with HA: H110Y, T160A, G226L, G228S; PB2: E627K)</t>
   </si>
   <si>
-    <t>V3A; N328K; N375S</t>
-  </si>
-  <si>
-    <t>V473L; P598L</t>
-  </si>
-  <si>
-    <t>T51M; V56A; E87G</t>
-  </si>
-  <si>
     <t>Decreased polymerase activity and replication efficiency in mammalian cells, H1N1 with PB2, PB1, PA NP from H5N1</t>
   </si>
   <si>
@@ -986,24 +764,6 @@
     <t>Increase polymerase activity, enhanced replication capacity in mammalian cell line, increased virulence in mice,  (with PB2 E627K)</t>
   </si>
   <si>
-    <t>A343S; D347E</t>
-  </si>
-  <si>
-    <t>P103H; S659L</t>
-  </si>
-  <si>
-    <t>S224P; N383D</t>
-  </si>
-  <si>
-    <t>K142R; I147V; I171V; M182L</t>
-  </si>
-  <si>
-    <t>V44I; V127A; C241Y; A343T; I573V</t>
-  </si>
-  <si>
-    <t>S149P; H266R; I357K; S515T</t>
-  </si>
-  <si>
     <t>K91R</t>
   </si>
   <si>
@@ -1064,18 +824,12 @@
     <t>Airborne transmissible in ferrets,  (with HA: H110Y, T160A, Q226L, G228S; PB2: E627K; PB1: H99Y, I368V)</t>
   </si>
   <si>
-    <t>R99K; S345N</t>
-  </si>
-  <si>
     <t>Increased virulence and decreased antiviral response in mice</t>
   </si>
   <si>
     <t>D74N</t>
   </si>
   <si>
-    <t>80–84 deletion</t>
-  </si>
-  <si>
     <t>Y84F</t>
   </si>
   <si>
@@ -1091,129 +845,36 @@
     <t>Increased virulence and decreased interferon response in chickens</t>
   </si>
   <si>
-    <t>P3S, R41K, D74N</t>
-  </si>
-  <si>
-    <t>R38A, K41A</t>
-  </si>
-  <si>
     <t>Decreased replication in mammalian and avian cell line</t>
   </si>
   <si>
-    <t>K55E, K66E, C138F</t>
-  </si>
-  <si>
     <t>Enhanced replication in mammalian cells, decrease IF response</t>
   </si>
   <si>
-    <t>222–230 deletion</t>
-  </si>
-  <si>
     <t>Increased replication in mammalian and avian cell lines</t>
   </si>
   <si>
-    <t>225–230 deletion</t>
-  </si>
-  <si>
     <t>Increased viral replication in avian cell line</t>
   </si>
   <si>
     <t>No impact on viral replication in avian cell lines</t>
   </si>
   <si>
-    <r>
-      <t>227</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ESEV</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>230</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (PDZ domain)</t>
-    </r>
-  </si>
-  <si>
     <t>Decreased viral replication in mammalian and avian cell lines</t>
   </si>
   <si>
     <t>Increased viral replication and virulence in mice, decreased viral replication in human and duck cell lines</t>
   </si>
   <si>
-    <r>
-      <t>227</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>RSKV</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>230</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (PDZ domain)</t>
-    </r>
-  </si>
-  <si>
     <t>Increased viral replication in human and duck cell lines but no effect in murine cells</t>
   </si>
   <si>
-    <t>230–237 elongation</t>
-  </si>
-  <si>
     <t>Increased replication and inflammatory cytokine production in chickens</t>
   </si>
   <si>
     <t>M16I</t>
   </si>
   <si>
-    <t>M16I, Y41C, E75G</t>
-  </si>
-  <si>
     <t>NS</t>
   </si>
   <si>
@@ -1226,9 +887,6 @@
     <t>I106M</t>
   </si>
   <si>
-    <t>L103F, I106M</t>
-  </si>
-  <si>
     <t>N205S</t>
   </si>
   <si>
@@ -1335,6 +993,282 @@
   </si>
   <si>
     <t>S31G</t>
+  </si>
+  <si>
+    <t>323to330(R-X-R;K-R)</t>
+  </si>
+  <si>
+    <t>E75K;S123P</t>
+  </si>
+  <si>
+    <t>E75K;S123P;R497K</t>
+  </si>
+  <si>
+    <t>E75K;S123P;N193K;R497K</t>
+  </si>
+  <si>
+    <t>E75K;N193K</t>
+  </si>
+  <si>
+    <t>E75K;N193K;R497K</t>
+  </si>
+  <si>
+    <t>E75K;R497K</t>
+  </si>
+  <si>
+    <t>H103Y;T156A;Q222L;G224S</t>
+  </si>
+  <si>
+    <t>S107R;T108I</t>
+  </si>
+  <si>
+    <t>S123P;N193K</t>
+  </si>
+  <si>
+    <t>S123P;N193K;R497K</t>
+  </si>
+  <si>
+    <t>S123P;R497K</t>
+  </si>
+  <si>
+    <t>L129V;A134V</t>
+  </si>
+  <si>
+    <t>L129del;I151T</t>
+  </si>
+  <si>
+    <t>S133A;T188I</t>
+  </si>
+  <si>
+    <t>G139R;N182K</t>
+  </si>
+  <si>
+    <t>N154D;N220K;Q222L;T315I</t>
+  </si>
+  <si>
+    <t>N154S;Q222L</t>
+  </si>
+  <si>
+    <t>N154S;Q222L;N244D</t>
+  </si>
+  <si>
+    <t>S155N;T156A</t>
+  </si>
+  <si>
+    <t>S155N;T156A;S223N</t>
+  </si>
+  <si>
+    <t>T156A;K189T;N220K;Q222L</t>
+  </si>
+  <si>
+    <t>T156A;Q222L</t>
+  </si>
+  <si>
+    <t>T156A;Q222L;G224S</t>
+  </si>
+  <si>
+    <t>T156A;S223N</t>
+  </si>
+  <si>
+    <t>V182N;N224K</t>
+  </si>
+  <si>
+    <t>V182 K/G;K189T;G224S</t>
+  </si>
+  <si>
+    <t>V182N;N220K;G224S</t>
+  </si>
+  <si>
+    <t>N182K;Q192R;Q222L;S223N;G224S</t>
+  </si>
+  <si>
+    <t>N182K;Q222L;S223N;G224S</t>
+  </si>
+  <si>
+    <t>N182K;Q222L;G224S</t>
+  </si>
+  <si>
+    <t>E183G;E186D;K189S;Q222L;G224S</t>
+  </si>
+  <si>
+    <t>E183G;Q222L;G224S</t>
+  </si>
+  <si>
+    <t>D183G;S223N</t>
+  </si>
+  <si>
+    <t>T185A;G188R</t>
+  </si>
+  <si>
+    <t>E186G;Q222E;G224S</t>
+  </si>
+  <si>
+    <t>K189T;G224S</t>
+  </si>
+  <si>
+    <t>K189R;Q222L;G224S</t>
+  </si>
+  <si>
+    <t>Q192R;Q222L;S223N;G224S</t>
+  </si>
+  <si>
+    <t>Q192R;Q222L;G224S</t>
+  </si>
+  <si>
+    <t>Q192R;S223N</t>
+  </si>
+  <si>
+    <t>N193K;R497K</t>
+  </si>
+  <si>
+    <t>K218Q;S223R</t>
+  </si>
+  <si>
+    <t>N220K;G224S</t>
+  </si>
+  <si>
+    <t>Q222L;S223N;G224S</t>
+  </si>
+  <si>
+    <t>Q222L;G224S</t>
+  </si>
+  <si>
+    <t>49–68deletion</t>
+  </si>
+  <si>
+    <t>54–72deletion</t>
+  </si>
+  <si>
+    <t>54–73deletion</t>
+  </si>
+  <si>
+    <t>54–75deletion</t>
+  </si>
+  <si>
+    <t>54–81deletion</t>
+  </si>
+  <si>
+    <t>57–65deletion</t>
+  </si>
+  <si>
+    <t>I117V;I314V</t>
+  </si>
+  <si>
+    <t>E119V;E222V</t>
+  </si>
+  <si>
+    <t>E119A;H274Y</t>
+  </si>
+  <si>
+    <t>I222L;S246N</t>
+  </si>
+  <si>
+    <t>I222M/V;H274Y</t>
+  </si>
+  <si>
+    <t>K150N;I222L;S246N</t>
+  </si>
+  <si>
+    <t>E119D;H274Y</t>
+  </si>
+  <si>
+    <t>E119G;H274Y</t>
+  </si>
+  <si>
+    <t>M28I;A274T;K526R;I553V;L607V</t>
+  </si>
+  <si>
+    <t>L89V;G309D</t>
+  </si>
+  <si>
+    <t>L89V;G309D;T339K;R477G;I495V;K627E;A676T</t>
+  </si>
+  <si>
+    <t>M147L;E627K</t>
+  </si>
+  <si>
+    <t>I147T;K339T;A588T</t>
+  </si>
+  <si>
+    <t>K526R;E627K</t>
+  </si>
+  <si>
+    <t>E627K;D701N</t>
+  </si>
+  <si>
+    <t>E627K;S714R</t>
+  </si>
+  <si>
+    <t>E627K;D701N;S714R</t>
+  </si>
+  <si>
+    <t>D701N;S714R</t>
+  </si>
+  <si>
+    <t>V3A;N328K;N375S</t>
+  </si>
+  <si>
+    <t>V473L;P598L</t>
+  </si>
+  <si>
+    <t>H99Y</t>
+  </si>
+  <si>
+    <t>T51M;V56A;E87G</t>
+  </si>
+  <si>
+    <t>A343S;D347E</t>
+  </si>
+  <si>
+    <t>P103H;S659L</t>
+  </si>
+  <si>
+    <t>S224P;N383D</t>
+  </si>
+  <si>
+    <t>K142R;I147V;I171V;M182L</t>
+  </si>
+  <si>
+    <t>V44I;V127A;C241Y;A343T;I573V</t>
+  </si>
+  <si>
+    <t>S149P;H266R;I357K;S515T</t>
+  </si>
+  <si>
+    <t>R99K;S345N</t>
+  </si>
+  <si>
+    <t>80–84deletion</t>
+  </si>
+  <si>
+    <t>L103F,I106M</t>
+  </si>
+  <si>
+    <t>P3S,R41K,D74N</t>
+  </si>
+  <si>
+    <t>R38A,K41A</t>
+  </si>
+  <si>
+    <t>K55E,K66E,C138F</t>
+  </si>
+  <si>
+    <t>222–230deletion</t>
+  </si>
+  <si>
+    <t>225–230deletion</t>
+  </si>
+  <si>
+    <t>227ESEV230(PDZdomain)</t>
+  </si>
+  <si>
+    <t>227RSKV230(PDZdomain)</t>
+  </si>
+  <si>
+    <t>230–237elongation</t>
+  </si>
+  <si>
+    <t>M16I,Y41C,E75G</t>
   </si>
 </sst>
 </file>
@@ -1386,14 +1320,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1711,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5CB93AC-71EE-42C9-B83A-09F5105723E2}">
   <dimension ref="A1:E321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="E315" sqref="E315"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1737,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1882,7 +1816,7 @@
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>124</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>4</v>
@@ -1994,7 +1928,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>4</v>
@@ -2008,7 +1942,7 @@
     </row>
     <row r="21" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>4</v>
@@ -2288,7 +2222,7 @@
     </row>
     <row r="41" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>4</v>
@@ -2302,7 +2236,7 @@
     </row>
     <row r="42" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>319</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>4</v>
@@ -2344,7 +2278,7 @@
     </row>
     <row r="45" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>4</v>
@@ -2358,7 +2292,7 @@
     </row>
     <row r="46" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>79</v>
+        <v>321</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>4</v>
@@ -2372,7 +2306,7 @@
     </row>
     <row r="47" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>4</v>
@@ -2386,7 +2320,7 @@
     </row>
     <row r="48" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>81</v>
+        <v>323</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>4</v>
@@ -2400,7 +2334,7 @@
     </row>
     <row r="49" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>82</v>
+        <v>324</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>4</v>
@@ -2414,7 +2348,7 @@
     </row>
     <row r="50" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>83</v>
+        <v>325</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>4</v>
@@ -2428,7 +2362,7 @@
     </row>
     <row r="51" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>122</v>
+        <v>326</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>4</v>
@@ -2442,7 +2376,7 @@
     </row>
     <row r="52" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>84</v>
+        <v>327</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>4</v>
@@ -2456,7 +2390,7 @@
     </row>
     <row r="53" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>85</v>
+        <v>328</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>4</v>
@@ -2470,7 +2404,7 @@
     </row>
     <row r="54" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>86</v>
+        <v>329</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>4</v>
@@ -2484,7 +2418,7 @@
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>87</v>
+        <v>330</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>4</v>
@@ -2498,7 +2432,7 @@
     </row>
     <row r="56" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>88</v>
+        <v>331</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>4</v>
@@ -2512,7 +2446,7 @@
     </row>
     <row r="57" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>89</v>
+        <v>332</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>4</v>
@@ -2526,7 +2460,7 @@
     </row>
     <row r="58" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>90</v>
+        <v>333</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>4</v>
@@ -2540,7 +2474,7 @@
     </row>
     <row r="59" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>91</v>
+        <v>334</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>4</v>
@@ -2554,7 +2488,7 @@
     </row>
     <row r="60" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>92</v>
+        <v>335</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>4</v>
@@ -2568,7 +2502,7 @@
     </row>
     <row r="61" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>93</v>
+        <v>336</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>4</v>
@@ -2582,7 +2516,7 @@
     </row>
     <row r="62" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>94</v>
+        <v>337</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>4</v>
@@ -2596,7 +2530,7 @@
     </row>
     <row r="63" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>95</v>
+        <v>338</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>4</v>
@@ -2610,7 +2544,7 @@
     </row>
     <row r="64" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>96</v>
+        <v>339</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>4</v>
@@ -2624,7 +2558,7 @@
     </row>
     <row r="65" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>97</v>
+        <v>340</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>4</v>
@@ -2638,7 +2572,7 @@
     </row>
     <row r="66" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>98</v>
+        <v>341</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>4</v>
@@ -2652,7 +2586,7 @@
     </row>
     <row r="67" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>99</v>
+        <v>342</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>4</v>
@@ -2666,7 +2600,7 @@
     </row>
     <row r="68" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>100</v>
+        <v>343</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>4</v>
@@ -2680,7 +2614,7 @@
     </row>
     <row r="69" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>101</v>
+        <v>344</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>4</v>
@@ -2694,7 +2628,7 @@
     </row>
     <row r="70" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>102</v>
+        <v>345</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>4</v>
@@ -2708,7 +2642,7 @@
     </row>
     <row r="71" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>103</v>
+        <v>346</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>4</v>
@@ -2722,7 +2656,7 @@
     </row>
     <row r="72" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>104</v>
+        <v>347</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>4</v>
@@ -2736,7 +2670,7 @@
     </row>
     <row r="73" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>105</v>
+        <v>348</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>4</v>
@@ -2750,7 +2684,7 @@
     </row>
     <row r="74" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>4</v>
@@ -2764,7 +2698,7 @@
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>107</v>
+        <v>350</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>4</v>
@@ -2778,7 +2712,7 @@
     </row>
     <row r="76" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>108</v>
+        <v>351</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>4</v>
@@ -2792,7 +2726,7 @@
     </row>
     <row r="77" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>109</v>
+        <v>352</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>4</v>
@@ -2806,7 +2740,7 @@
     </row>
     <row r="78" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>110</v>
+        <v>353</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>4</v>
@@ -2820,7 +2754,7 @@
     </row>
     <row r="79" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>111</v>
+        <v>354</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>4</v>
@@ -2834,7 +2768,7 @@
     </row>
     <row r="80" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>112</v>
+        <v>355</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>4</v>
@@ -2848,7 +2782,7 @@
     </row>
     <row r="81" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>113</v>
+        <v>356</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>4</v>
@@ -2862,7 +2796,7 @@
     </row>
     <row r="82" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>114</v>
+        <v>357</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>4</v>
@@ -2876,7 +2810,7 @@
     </row>
     <row r="83" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>115</v>
+        <v>358</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>4</v>
@@ -2890,7 +2824,7 @@
     </row>
     <row r="84" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>116</v>
+        <v>359</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>4</v>
@@ -2904,7 +2838,7 @@
     </row>
     <row r="85" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>117</v>
+        <v>360</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>4</v>
@@ -2918,7 +2852,7 @@
     </row>
     <row r="86" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>118</v>
+        <v>361</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>4</v>
@@ -2932,7 +2866,7 @@
     </row>
     <row r="87" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>119</v>
+        <v>362</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>4</v>
@@ -2946,7 +2880,7 @@
     </row>
     <row r="88" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>120</v>
+        <v>363</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>4</v>
@@ -2960,7 +2894,7 @@
     </row>
     <row r="89" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>4</v>
@@ -2974,7 +2908,7 @@
     </row>
     <row r="90" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>4</v>
@@ -2988,7 +2922,7 @@
     </row>
     <row r="91" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>4</v>
@@ -3002,7 +2936,7 @@
     </row>
     <row r="92" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>121</v>
+        <v>364</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>4</v>
@@ -3016,7 +2950,7 @@
     </row>
     <row r="93" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>4</v>
@@ -3030,7 +2964,7 @@
     </row>
     <row r="94" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>4</v>
@@ -3044,7 +2978,7 @@
     </row>
     <row r="95" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>4</v>
@@ -3058,7 +2992,7 @@
     </row>
     <row r="96" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>4</v>
@@ -3072,584 +3006,584 @@
     </row>
     <row r="97" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>274</v>
+        <v>365</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>274</v>
+        <v>365</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>132</v>
+        <v>366</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>132</v>
+        <v>366</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>132</v>
+        <v>366</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>135</v>
+        <v>367</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>136</v>
+        <v>368</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>139</v>
+        <v>369</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>142</v>
+        <v>370</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>144</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>48</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>41</v>
@@ -3660,349 +3594,349 @@
     </row>
     <row r="139" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>147</v>
+        <v>96</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>177</v>
+        <v>371</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>178</v>
+        <v>372</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>184</v>
+        <v>373</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>179</v>
+        <v>374</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>182</v>
+        <v>377</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>183</v>
+        <v>378</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>287</v>
+        <v>213</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>286</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>285</v>
+        <v>211</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>207</v>
+        <v>148</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="E163" s="1" t="s">
         <v>37</v>
@@ -4010,304 +3944,304 @@
     </row>
     <row r="164" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>211</v>
+        <v>152</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>212</v>
+        <v>153</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>213</v>
+        <v>154</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>214</v>
+        <v>155</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>216</v>
+        <v>157</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>217</v>
+        <v>158</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>218</v>
+        <v>159</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>224</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>225</v>
+        <v>166</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>228</v>
+        <v>169</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>58</v>
@@ -4318,94 +4252,94 @@
     </row>
     <row r="186" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>226</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>233</v>
+        <v>174</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>234</v>
+        <v>175</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>5</v>
@@ -4416,573 +4350,573 @@
     </row>
     <row r="193" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>246</v>
+        <v>379</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>247</v>
+        <v>380</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>248</v>
+        <v>381</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>249</v>
+        <v>382</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>250</v>
+        <v>383</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>237</v>
+        <v>178</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>251</v>
+        <v>384</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>251</v>
+        <v>384</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>252</v>
+        <v>385</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>253</v>
+        <v>386</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>253</v>
+        <v>386</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>253</v>
+        <v>386</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>254</v>
+        <v>387</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>255</v>
+        <v>388</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>261</v>
+        <v>192</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>281</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>262</v>
+        <v>193</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>266</v>
+        <v>197</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>268</v>
+        <v>199</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>269</v>
+        <v>200</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>278</v>
+        <v>389</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>270</v>
+        <v>201</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>279</v>
+        <v>390</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>283</v>
+        <v>209</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>284</v>
+        <v>210</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>276</v>
+        <v>391</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>272</v>
+        <v>203</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>280</v>
+        <v>392</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>275</v>
+        <v>205</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>273</v>
+        <v>204</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>288</v>
+        <v>214</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C226" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C227" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>313</v>
+        <v>239</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="E233" s="1" t="s">
         <v>37</v>
@@ -4990,41 +4924,41 @@
     </row>
     <row r="234" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>298</v>
+        <v>224</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="E236" s="1" t="s">
         <v>37</v>
@@ -5032,1184 +4966,1184 @@
     </row>
     <row r="237" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>300</v>
+        <v>226</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>301</v>
+        <v>227</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>302</v>
+        <v>228</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>314</v>
+        <v>240</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>236</v>
+        <v>177</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>316</v>
+        <v>393</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>306</v>
+        <v>232</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>317</v>
+        <v>394</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
     </row>
     <row r="245" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>319</v>
+        <v>396</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>320</v>
+        <v>397</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>321</v>
+        <v>398</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>296</v>
+        <v>222</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>315</v>
+        <v>241</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>312</v>
+        <v>238</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="C250" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>335</v>
+        <v>255</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>322</v>
+        <v>242</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>323</v>
+        <v>243</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>324</v>
+        <v>244</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>325</v>
+        <v>245</v>
       </c>
     </row>
     <row r="255" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>326</v>
+        <v>246</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E255" s="1" t="s">
-        <v>327</v>
+        <v>247</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C256" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C258" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>331</v>
+        <v>251</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C259" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C260" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E260" s="1" t="s">
-        <v>210</v>
+        <v>151</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C261" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>334</v>
+        <v>254</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C262" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>337</v>
+        <v>257</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C263" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>338</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>339</v>
+        <v>259</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>333</v>
+        <v>253</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C265" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>340</v>
+        <v>260</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>336</v>
+        <v>256</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>341</v>
+        <v>261</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>371</v>
+        <v>280</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C267" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E267" s="1" t="s">
-        <v>343</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>344</v>
+        <v>263</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>383</v>
+        <v>291</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="3" t="s">
-        <v>345</v>
+      <c r="A269" s="5" t="s">
+        <v>400</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>229</v>
+        <v>170</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="3"/>
+      <c r="A270" s="5"/>
       <c r="B270" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>384</v>
+        <v>292</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="3"/>
+      <c r="A271" s="5"/>
       <c r="B271" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>346</v>
+        <v>264</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3" t="s">
-        <v>372</v>
+      <c r="A273" s="5" t="s">
+        <v>281</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3"/>
+      <c r="A274" s="5"/>
       <c r="B274" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
     </row>
     <row r="275" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>373</v>
+        <v>282</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>389</v>
+        <v>297</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>347</v>
+        <v>265</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C276" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>348</v>
+        <v>266</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>349</v>
+        <v>267</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C277" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>350</v>
+        <v>268</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C278" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>375</v>
+        <v>283</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>376</v>
+        <v>284</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>377</v>
+        <v>285</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>378</v>
+        <v>286</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>383</v>
+        <v>291</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>353</v>
+        <v>269</v>
       </c>
     </row>
     <row r="283" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C283" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>355</v>
+        <v>270</v>
       </c>
     </row>
     <row r="284" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C284" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>357</v>
+        <v>271</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="3" t="s">
-        <v>358</v>
+      <c r="A285" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3"/>
+      <c r="A286" s="5"/>
       <c r="B286" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>360</v>
+        <v>273</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
-        <v>361</v>
+      <c r="A287" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="4" t="s">
-        <v>361</v>
+      <c r="A288" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C288" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>362</v>
+        <v>274</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="4" t="s">
-        <v>361</v>
+      <c r="A289" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>363</v>
+        <v>275</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="4" t="s">
-        <v>364</v>
+      <c r="A290" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>365</v>
+        <v>276</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C291" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>367</v>
+        <v>277</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>202</v>
+        <v>143</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>380</v>
+        <v>288</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>381</v>
+        <v>289</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>370</v>
+        <v>279</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>382</v>
+        <v>290</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="5" t="s">
-        <v>399</v>
+      <c r="A296" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C296" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="5" t="s">
-        <v>391</v>
+      <c r="A297" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>392</v>
+        <v>300</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="5" t="s">
-        <v>393</v>
+      <c r="A298" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>188</v>
+        <v>129</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="5" t="s">
-        <v>394</v>
+      <c r="A299" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C299" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="5" t="s">
-        <v>402</v>
+      <c r="A300" s="4" t="s">
+        <v>310</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="5" t="s">
-        <v>403</v>
+      <c r="A301" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>409</v>
+        <v>317</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C305" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>409</v>
+        <v>317</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>409</v>
+        <v>317</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C307" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="5" t="s">
-        <v>397</v>
+      <c r="A308" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C308" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="5" t="s">
-        <v>400</v>
+      <c r="A309" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="5" t="s">
-        <v>401</v>
+      <c r="A310" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C310" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="5" t="s">
-        <v>404</v>
+      <c r="A311" s="4" t="s">
+        <v>312</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="5" t="s">
-        <v>405</v>
+      <c r="A312" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="316" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
